--- a/Introduction-to-Data/L7-Business-Metrics/Misc/band-marketingmetric-quizzes-a.xlsx
+++ b/Introduction-to-Data/L7-Business-Metrics/Misc/band-marketingmetric-quizzes-a.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/Introduction-to-Data/L7-Business-Metrics/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8021C7A6-E3E5-784E-A895-79D74D0E35B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{186C26DC-645D-394E-AD8F-DAB24576F31F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="13800" yWindow="2220" windowWidth="18540" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="band-marketingmetric-quizzes-a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Ad campaign</t>
   </si>
@@ -50,16 +50,54 @@
   </si>
   <si>
     <t>Google YouTube</t>
+  </si>
+  <si>
+    <t>Click Through Rate = (Number of Clicks / Number of Impressions) X 100</t>
+  </si>
+  <si>
+    <t>Which ad platform had the highest click through rate?</t>
+  </si>
+  <si>
+    <t>Which of the following ad platforms have the lowest click through rate?</t>
+  </si>
+  <si>
+    <t>On which platform was this ad generating the most interest by way of clicks?</t>
+  </si>
+  <si>
+    <t>Which of the ad platforms cost us less than 30 cents per click?</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>Which of the ad platforms had the highest Cost Per Lead?</t>
+  </si>
+  <si>
+    <t>Cost Per Lead (CPL) = Cost of advertising on the source platform / Total number of leads</t>
+  </si>
+  <si>
+    <t>CPL</t>
+  </si>
+  <si>
+    <t>Which of the ad platforms had the lowest Cost Per Lead?</t>
+  </si>
+  <si>
+    <t>Cost Per Click (CPC) = Cost of Advertising on Source Platform / Number of Viewers who Clicked on the Ad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -190,6 +228,35 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF2E3D49"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4F4F4F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,8 +559,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -536,53 +604,61 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,13 +970,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -916,8 +1003,21 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -933,8 +1033,20 @@
       <c r="E2">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3">
+        <f>C2/B2*100</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <f>D2/C2</f>
+        <v>0.7</v>
+      </c>
+      <c r="H2" s="7">
+        <f>D2/E2</f>
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -950,8 +1062,20 @@
       <c r="E3">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F5" si="0">C3/B3*100</f>
+        <v>1.4963068858708601</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G5" si="1">D3/C3</f>
+        <v>0.30254777070063693</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H6" si="2">D3/E3</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -967,8 +1091,20 @@
       <c r="E4">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1562121408155823</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.27975584944048831</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="2"/>
+        <v>3.3132530120481927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -984,8 +1120,20 @@
       <c r="E5">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3184731655983919</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.14901960784313725</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1067961165048543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1000,6 +1148,109 @@
       </c>
       <c r="E6">
         <v>95</v>
+      </c>
+      <c r="F6" s="3">
+        <f>C6/B6*100</f>
+        <v>2.3808383233532937</v>
+      </c>
+      <c r="G6" s="8">
+        <f>D6/C6</f>
+        <v>0.22535211267605634</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1789473684210525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="D7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="24">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="str">
+        <f>A5</f>
+        <v>Google display</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="str">
+        <f>A4</f>
+        <v>Bing search</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="str">
+        <f>A5</f>
+        <v>Google display</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="21">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>A5</f>
+        <v>Google display</v>
+      </c>
+      <c r="H15" t="str">
+        <f>A6</f>
+        <v>Google YouTube</v>
+      </c>
+      <c r="I15" t="str">
+        <f>A4</f>
+        <v>Bing search</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21">
+      <c r="A16" s="4"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="21">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="str">
+        <f>A2</f>
+        <v>Facebook</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="str">
+        <f>A5</f>
+        <v>Google display</v>
       </c>
     </row>
   </sheetData>

--- a/Introduction-to-Data/L7-Business-Metrics/Misc/band-marketingmetric-quizzes-a.xlsx
+++ b/Introduction-to-Data/L7-Business-Metrics/Misc/band-marketingmetric-quizzes-a.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marksoro/git-projects/Business-Analytics/Introduction-to-Data/L7-Business-Metrics/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{186C26DC-645D-394E-AD8F-DAB24576F31F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F2862C-DF92-8944-9B0C-46AE4AD36F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="2220" windowWidth="18540" windowHeight="17440"/>
+    <workbookView xWindow="13800" yWindow="2220" windowWidth="18540" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="band-marketingmetric-quizzes-a" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Google YouTube</t>
   </si>
   <si>
-    <t>Click Through Rate = (Number of Clicks / Number of Impressions) X 100</t>
-  </si>
-  <si>
     <t>Which ad platform had the highest click through rate?</t>
   </si>
   <si>
@@ -86,12 +83,15 @@
   </si>
   <si>
     <t>Cost Per Click (CPC) = Cost of Advertising on Source Platform / Number of Viewers who Clicked on the Ad</t>
+  </si>
+  <si>
+    <t>Click Through Rate (CTR) = (Number of Clicks / Number of Impressions) X 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -969,11 +969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1004,13 +1004,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1174,12 +1174,12 @@
     </row>
     <row r="9" spans="1:12" ht="24">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="str">
         <f>A5</f>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="11" spans="1:12" ht="21">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="str">
         <f>A4</f>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="12" spans="1:12" ht="21">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="str">
         <f>A5</f>
@@ -1206,12 +1206,12 @@
     </row>
     <row r="14" spans="1:12" ht="21">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="21">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="3" t="str">
         <f>A5</f>
@@ -1232,12 +1232,12 @@
     </row>
     <row r="17" spans="1:7" ht="21">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="str">
         <f>A2</f>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="19" spans="1:7" ht="21">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="str">
         <f>A5</f>
